--- a/data_analyzed/Top Speed (m-s)/Top Speed (m-s)_trainings_pregame.xlsx
+++ b/data_analyzed/Top Speed (m-s)/Top Speed (m-s)_trainings_pregame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,112 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -485,28 +555,62 @@
         <v>44803</v>
       </c>
       <c r="B2" t="n">
+        <v>5.8045</v>
+      </c>
+      <c r="C2" t="n">
         <v>5.3423</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5.9378</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>5.7778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.3801</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.7334</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>6.2534</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.9823</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>6.1689</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>6.1645</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.0423</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
+        <v>6.3023</v>
+      </c>
+      <c r="Q2" t="n">
         <v>5.8712</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>6.1467</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>5.9978</v>
+      </c>
+      <c r="V2" t="n">
         <v>6.6312</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.2045</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +618,68 @@
         <v>44807</v>
       </c>
       <c r="B3" t="n">
+        <v>6.4045</v>
+      </c>
+      <c r="C3" t="n">
         <v>5.8289</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>6.5578</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>5.8712</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.4623</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.3023</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.1334</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
+        <v>6.4489</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.1112</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.3956</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.4245</v>
+      </c>
+      <c r="M3" t="n">
         <v>6.5045</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
+        <v>6.1778</v>
+      </c>
+      <c r="O3" t="n">
         <v>7.0756</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>6.6934</v>
+      </c>
+      <c r="Q3" t="n">
         <v>6.6534</v>
       </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
+        <v>6.0667</v>
+      </c>
+      <c r="S3" t="n">
         <v>6.3623</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>5.7245</v>
+      </c>
+      <c r="V3" t="n">
         <v>6.8023</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.8978</v>
       </c>
     </row>
     <row r="4">
@@ -543,83 +687,195 @@
         <v>44812</v>
       </c>
       <c r="B4" t="n">
+        <v>6.1756</v>
+      </c>
+      <c r="C4" t="n">
         <v>5.0223</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>5.9156</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>6.3578</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.1312</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.6445</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.3023</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>6.3556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.7956</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.8978</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.9245</v>
+      </c>
+      <c r="M4" t="n">
         <v>5.9267</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>6.1112</v>
+      </c>
+      <c r="O4" t="n">
         <v>6.6156</v>
       </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
+        <v>6.5112</v>
+      </c>
+      <c r="Q4" t="n">
         <v>5.9067</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S4" t="n">
         <v>5.6712</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>5.5689</v>
+      </c>
+      <c r="V4" t="n">
         <v>6.4578</v>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44819</v>
       </c>
       <c r="B5" t="n">
+        <v>6.1734</v>
+      </c>
+      <c r="C5" t="n">
         <v>5.5467</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5.3467</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.3623</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.5823</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>6.4667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.1289</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.8934</v>
+      </c>
+      <c r="M5" t="n">
         <v>6.2645</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
+        <v>5.8667</v>
+      </c>
+      <c r="O5" t="n">
         <v>6.4134</v>
       </c>
-      <c r="G5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>6.1134</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
+        <v>5.9378</v>
+      </c>
+      <c r="S5" t="n">
         <v>5.9912</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
+        <v>5.5445</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.5734</v>
+      </c>
+      <c r="V5" t="n">
         <v>6.6312</v>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44821</v>
       </c>
       <c r="B6" t="n">
+        <v>5.8756</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.5</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5.0956</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.7112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.1112</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.9289</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>6.5467</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.9156</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.9467</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.1645</v>
+      </c>
+      <c r="M6" t="n">
         <v>5.4045</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
+        <v>5.8378</v>
+      </c>
+      <c r="O6" t="n">
         <v>5.8045</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>5.2267</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
+        <v>5.6178</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.8023</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>4.4045</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>6.6489</v>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
